--- a/PaperTrading/Orders_PaperTrading.xlsx
+++ b/PaperTrading/Orders_PaperTrading.xlsx
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -184,22 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" indent="7"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1279,48 +1273,48 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col width="20.33203125" customWidth="1" style="2" min="1" max="4"/>
-    <col width="20.33203125" customWidth="1" style="13" min="5" max="5"/>
+    <col width="20.33203125" customWidth="1" style="9" min="5" max="5"/>
     <col width="20.33203125" customWidth="1" style="2" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>TrailLimit%</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>OrderType</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Execution</t>
         </is>
@@ -1329,7 +1323,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BRK.B</t>
+          <t>BRK B</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -1369,11 +1363,7 @@
       <c r="E3" t="n">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1395,11 +1385,7 @@
       <c r="E4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1421,11 +1407,7 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -1444,10 +1426,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1466,10 +1447,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1488,10 +1468,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="9" t="n">
         <v>113</v>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1510,10 +1489,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1532,10 +1510,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1554,10 +1531,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1576,10 +1552,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1598,10 +1573,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="G13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1620,10 +1594,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1642,10 +1615,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="G15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1664,10 +1636,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1686,10 +1657,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1708,10 +1678,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1730,10 +1699,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1752,10 +1720,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1774,10 +1741,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1796,10 +1762,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1818,10 +1783,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1840,10 +1804,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1862,10 +1825,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1884,10 +1846,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1906,10 +1867,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1928,10 +1888,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1950,10 +1909,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1972,10 +1930,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1994,10 +1951,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2016,10 +1972,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2038,10 +1993,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E33" s="13" t="n">
+      <c r="E33" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2060,10 +2014,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="9" t="n">
         <v>119</v>
       </c>
-      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2082,10 +2035,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E35" s="13" t="n">
+      <c r="E35" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2104,10 +2056,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2126,10 +2077,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E37" s="13" t="n">
+      <c r="E37" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2148,10 +2098,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="9" t="n">
         <v>141</v>
       </c>
-      <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2170,10 +2119,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E39" s="13" t="n">
+      <c r="E39" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2192,10 +2140,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E40" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2214,10 +2161,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="G41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2236,10 +2182,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="G42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2258,10 +2203,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E43" s="13" t="n">
+      <c r="E43" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="G43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2280,10 +2224,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="G44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2302,10 +2245,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="G45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2324,10 +2266,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="G46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2346,10 +2287,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="G47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2368,10 +2308,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="9" t="n">
         <v>159</v>
       </c>
-      <c r="G48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2390,10 +2329,9 @@
           <t>MKT-ATCH-LIMIT</t>
         </is>
       </c>
-      <c r="E49" s="13" t="n">
+      <c r="E49" s="9" t="n">
         <v>271</v>
       </c>
-      <c r="G49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2422,37 +2360,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>TrailLimit%</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>OrderType</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>Execution</t>
         </is>
@@ -2483,27 +2421,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
@@ -6272,7 +6210,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1"/>
